--- a/output/3_Regression/h23/h23table_mape.xlsx
+++ b/output/3_Regression/h23/h23table_mape.xlsx
@@ -556,7 +556,7 @@
         <v>0.01368352916479831</v>
       </c>
       <c r="G7">
-        <v>0.1192859706844493</v>
+        <v>0.1192859706844494</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>0.01528921921542237</v>
       </c>
       <c r="G8">
-        <v>0.08839652297253611</v>
+        <v>0.08839652297253617</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>0.01684502104757379</v>
       </c>
       <c r="G9">
-        <v>0.09298185769720478</v>
+        <v>0.09298185769720477</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>0.0177660324256419</v>
       </c>
       <c r="G10">
-        <v>0.08091746957943471</v>
+        <v>0.0809174695794347</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>0.01833618786172164</v>
       </c>
       <c r="G11">
-        <v>0.05583075004413964</v>
+        <v>0.05583075004413966</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -694,7 +694,7 @@
         <v>0.01844707713919214</v>
       </c>
       <c r="G13">
-        <v>0.1122118332489125</v>
+        <v>0.1122118332489126</v>
       </c>
     </row>
   </sheetData>
